--- a/이것저것 계산.xlsx
+++ b/이것저것 계산.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\승원\co-op\OV-PAM\OV-PAM_modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82B4F1D6-6DCF-405D-AA97-DCEF6C30C2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A97297-6EAD-410B-9B9C-55292A0F3763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16416" xr2:uid="{3D63249C-FD42-4B2F-AE9E-5CB10AFC825A}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>높이</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +59,30 @@
   </si>
   <si>
     <t>theta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 모델 높이 계싼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링 하나 높이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링 + 상,하판 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1층 높이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1층 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 높이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837D50C6-F08C-4C42-890C-22FFD805B8F4}">
-  <dimension ref="C4:G19"/>
+  <dimension ref="C4:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -515,7 +538,7 @@
         <v>1.7453292519943295E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C19">
         <f>2*(C16^2)*D16*(1+2^0.5)*SIN(E16)/E16</f>
         <v>88324.472790781161</v>
@@ -527,6 +550,92 @@
       <c r="E19">
         <f>C19-D19</f>
         <v>87928.839164313511</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D25">
+        <v>3.4</v>
+      </c>
+      <c r="G25">
+        <f>D25*D27+D29*D31</f>
+        <v>140.4</v>
+      </c>
+      <c r="J25">
+        <v>3.4</v>
+      </c>
+      <c r="M25">
+        <f>J25*J27+J29*J31</f>
+        <v>141.4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D29">
+        <v>24</v>
+      </c>
+      <c r="J29">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/이것저것 계산.xlsx
+++ b/이것저것 계산.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\승원\co-op\OV-PAM\OV-PAM_modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A97297-6EAD-410B-9B9C-55292A0F3763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086CC16C-EF82-4F50-AC19-FF7012102527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16416" xr2:uid="{3D63249C-FD42-4B2F-AE9E-5CB10AFC825A}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="20160" windowHeight="11844" xr2:uid="{3D63249C-FD42-4B2F-AE9E-5CB10AFC825A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837D50C6-F08C-4C42-890C-22FFD805B8F4}">
   <dimension ref="C4:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>11.547000000000001</v>
+        <v>13.856</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.4">
@@ -481,7 +481,7 @@
       </c>
       <c r="F7">
         <f>$F$4*SIN(D7)</f>
-        <v>9.9999953374989126</v>
+        <v>11.999647994837181</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.4">
@@ -494,7 +494,7 @@
       </c>
       <c r="F8">
         <f>$F$4*SIN(D8)</f>
-        <v>5.7734999999999994</v>
+        <v>6.927999999999999</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.4">
@@ -507,11 +507,11 @@
       </c>
       <c r="F9">
         <f>$F$4*SIN(D9)</f>
-        <v>0.13435241420873131</v>
+        <v>0.16121824294415701</v>
       </c>
       <c r="G9">
         <f>F4*COS(D9)</f>
-        <v>11.546218360519443</v>
+        <v>13.855062059700129</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.4">

--- a/이것저것 계산.xlsx
+++ b/이것저것 계산.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\승원\co-op\OV-PAM\OV-PAM_modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086CC16C-EF82-4F50-AC19-FF7012102527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968E9940-11B0-4B4D-A8A3-964C726FC4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1812" yWindow="1812" windowWidth="20160" windowHeight="11844" xr2:uid="{3D63249C-FD42-4B2F-AE9E-5CB10AFC825A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>높이</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837D50C6-F08C-4C42-890C-22FFD805B8F4}">
-  <dimension ref="C4:M31"/>
+  <dimension ref="C4:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>13.856</v>
+        <v>14.103999999999999</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.4">
@@ -481,7 +481,7 @@
       </c>
       <c r="F7">
         <f>$F$4*SIN(D7)</f>
-        <v>11.999647994837181</v>
+        <v>12.214422294975721</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.4">
@@ -494,7 +494,7 @@
       </c>
       <c r="F8">
         <f>$F$4*SIN(D8)</f>
-        <v>6.927999999999999</v>
+        <v>7.0519999999999987</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.4">
@@ -507,11 +507,11 @@
       </c>
       <c r="F9">
         <f>$F$4*SIN(D9)</f>
-        <v>0.16121824294415701</v>
+        <v>0.16410378886290347</v>
       </c>
       <c r="G9">
         <f>F4*COS(D9)</f>
-        <v>13.855062059700129</v>
+        <v>14.103045272085062</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.4">
@@ -636,6 +636,92 @@
       </c>
       <c r="J31">
         <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D37">
+        <v>3.4</v>
+      </c>
+      <c r="G37">
+        <f>D37*D39+D41*D43</f>
+        <v>139.6</v>
+      </c>
+      <c r="J37">
+        <v>3.4</v>
+      </c>
+      <c r="M37">
+        <f>J37*J39+J41*J43</f>
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D41">
+        <v>42</v>
+      </c>
+      <c r="J41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/이것저것 계산.xlsx
+++ b/이것저것 계산.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\승원\co-op\OV-PAM\OV-PAM_modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968E9940-11B0-4B4D-A8A3-964C726FC4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF86FE8-F873-44E7-B30A-A2492D14DE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="20160" windowHeight="11844" xr2:uid="{3D63249C-FD42-4B2F-AE9E-5CB10AFC825A}"/>
+    <workbookView xWindow="0" yWindow="8100" windowWidth="13440" windowHeight="8100" activeTab="1" xr2:uid="{3D63249C-FD42-4B2F-AE9E-5CB10AFC825A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>높이</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,12 +86,100 @@
     <t>총 높이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옆면 초기각도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정팔각형 단방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정팔각형 양방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d (mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사각형에 가까운 
+팔각형 양방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옆면 초기각도 (deg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델링 사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 모형 사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 높이 (mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 단면적 (mm²)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단면적 최대길이 (mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부 부피 (mm^3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄성력[사람측정] (kg)</t>
+  </si>
+  <si>
+    <t>탄성력[사람측정] (kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접히는 부분 길이 (mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄성력 순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프린터 출력물 품질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구멍 다수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구멍 1~2개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,16 +195,44 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -123,18 +240,263 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -148,6 +510,1762 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>접히는 부분의 길이에 따른 탄성력</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>[</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>사람측정</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14086654292911699"/>
+          <c:y val="0.15947089947089946"/>
+          <c:w val="0.81740645251202004"/>
+          <c:h val="0.66949464650252055"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>탄성력[사람측정] (kg)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14.874000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.785</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.809000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.754000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$6:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D377-4F45-B8D8-7C72EF05DDA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1383477903"/>
+        <c:axId val="1383483183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1383477903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="14"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>접히는 부분의 길이 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>(0.5</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>층</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>) [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1383483183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1383483183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.1"/>
+          <c:min val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>탄성력 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>(kg)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1383477903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>10420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC867AC4-0596-9543-004D-E82CB77B3A72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="1214380"/>
+          <a:ext cx="1348740" cy="1140200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A304FDA0-283A-2205-6F9B-9F88E9D3A221}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="3482" b="3664"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3368040" y="1203960"/>
+          <a:ext cx="1348740" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>10654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DD7D90C-12E4-2078-D174-66826BB99CC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7414261" y="1214614"/>
+          <a:ext cx="1348740" cy="1231406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77771994-CEE6-A64B-E578-78E23A0AAA65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6065521" y="1203960"/>
+          <a:ext cx="1348740" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53775ACE-7EAD-1D0D-EFFF-AFF0F0E03F47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10111740" y="1203960"/>
+          <a:ext cx="1348740" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1273320</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A1C909-4DB0-0075-1C67-7AB47E3C6A5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11385060" y="1203960"/>
+          <a:ext cx="1424160" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3381E24-E561-BE59-ECA4-ED93E953BEAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="22071" r="29877" b="17242"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171701" y="2667000"/>
+          <a:ext cx="1348740" cy="1173480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5791CAC5-3530-4FC5-D954-182C8FD1F9B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10568941" y="2674365"/>
+          <a:ext cx="1348740" cy="1166115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C722F068-4A60-69C3-B808-9F0274F62739}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3520441" y="2667001"/>
+          <a:ext cx="1348740" cy="1173480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B484CF-F02F-DF97-739D-25A95ADBF9B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6370321" y="2667000"/>
+          <a:ext cx="1348740" cy="1173480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B55C6CF-CED6-D247-3F0B-37AAD84AAF04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="2667001"/>
+          <a:ext cx="1348740" cy="1173480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D0E3B53-4B51-9C4F-5823-C5650EE53500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11917680" y="2667001"/>
+          <a:ext cx="1348740" cy="1173480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>575310</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="차트 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF452418-F0F7-E13C-8DAF-FC6CE38ED555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837D50C6-F08C-4C42-890C-22FFD805B8F4}">
   <dimension ref="C4:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -460,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>14.103999999999999</v>
+        <v>13.856</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.4">
@@ -481,7 +2599,7 @@
       </c>
       <c r="F7">
         <f>$F$4*SIN(D7)</f>
-        <v>12.214422294975721</v>
+        <v>11.999647994837181</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.4">
@@ -494,7 +2612,7 @@
       </c>
       <c r="F8">
         <f>$F$4*SIN(D8)</f>
-        <v>7.0519999999999987</v>
+        <v>6.927999999999999</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.4">
@@ -507,11 +2625,11 @@
       </c>
       <c r="F9">
         <f>$F$4*SIN(D9)</f>
-        <v>0.16410378886290347</v>
+        <v>0.16121824294415701</v>
       </c>
       <c r="G9">
         <f>F4*COS(D9)</f>
-        <v>14.103045272085062</v>
+        <v>13.855062059700129</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.4">
@@ -728,4 +2846,465 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222A7DDF-D196-460D-9DDE-10D8C91D72FC}">
+  <dimension ref="B1:S19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="19.69921875" customWidth="1"/>
+    <col min="3" max="4" width="17.69921875" customWidth="1"/>
+    <col min="5" max="5" width="19.69921875" customWidth="1"/>
+    <col min="6" max="7" width="17.69921875" customWidth="1"/>
+    <col min="8" max="8" width="19.69921875" customWidth="1"/>
+    <col min="9" max="10" width="17.69921875" customWidth="1"/>
+    <col min="11" max="16" width="15.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:19" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3">
+        <v>60</v>
+      </c>
+      <c r="D3" s="3">
+        <v>55</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3">
+        <v>40</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3">
+        <v>60</v>
+      </c>
+      <c r="J3" s="13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <f>10.218</f>
+        <v>10.218</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3">
+        <v>7</v>
+      </c>
+      <c r="J4" s="13">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>14.874000000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>17.206</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3">
+        <v>20.809000000000001</v>
+      </c>
+      <c r="G5" s="3">
+        <v>23.754000000000001</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="3">
+        <v>15.492000000000001</v>
+      </c>
+      <c r="J5" s="13">
+        <v>20.785</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="3">
+        <v>14.874000000000001</v>
+      </c>
+      <c r="O5" s="3">
+        <v>17.206</v>
+      </c>
+      <c r="P5" s="3">
+        <v>15.492000000000001</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>20.785</v>
+      </c>
+      <c r="R5" s="3">
+        <v>20.809000000000001</v>
+      </c>
+      <c r="S5" s="3">
+        <v>23.754000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="97.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="13"/>
+      <c r="M6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1.96</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1.86</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="92.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="3">
+        <v>24</v>
+      </c>
+      <c r="J8" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3519.9229999999998</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3519.9229999999998</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2898.1680000000001</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2898.1680000000001</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3519.9229999999998</v>
+      </c>
+      <c r="J9" s="13">
+        <v>3519.9229999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3">
+        <v>70.554000000000002</v>
+      </c>
+      <c r="D10" s="3">
+        <v>70.554000000000002</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3">
+        <v>69.552000000000007</v>
+      </c>
+      <c r="G10" s="3">
+        <v>69.552000000000007</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="3">
+        <v>70.554000000000002</v>
+      </c>
+      <c r="J10" s="13">
+        <v>70.554000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3">
+        <v>68768.214999999997</v>
+      </c>
+      <c r="D11" s="3">
+        <v>67671.183000000005</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3">
+        <v>53886.618000000002</v>
+      </c>
+      <c r="G11" s="3">
+        <v>52172.614999999998</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="3">
+        <v>69418.308000000005</v>
+      </c>
+      <c r="J11" s="13">
+        <v>62206.161</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.86</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.67</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1.96</v>
+      </c>
+      <c r="J12" s="13">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="3">
+        <v>5</v>
+      </c>
+      <c r="J13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3">
+        <f>50*(C11-C9*6)/(C8-6)/1000-C12*9.8</f>
+        <v>112.16943611111107</v>
+      </c>
+      <c r="D14" s="3">
+        <f>50*(D11-D9*6)/(D8-6)/1000-D12*9.8</f>
+        <v>110.298125</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" ref="F14:G14" si="0">50*(F11-F9*6)/(F8-6)/1000-F12*9.8</f>
+        <v>83.15424999999999</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>80.255130555555539</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" ref="I14:J14" si="1">50*(I11-I9*6)/(I8-6)/1000-I12*9.8</f>
+        <v>114.95525000000001</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="1"/>
+        <v>98.449508333333327</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C19" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/이것저것 계산.xlsx
+++ b/이것저것 계산.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\승원\co-op\OV-PAM\OV-PAM_modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF86FE8-F873-44E7-B30A-A2492D14DE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF8ABE4-4862-4769-955C-C4F4BF7FB9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8100" windowWidth="13440" windowHeight="8100" activeTab="1" xr2:uid="{3D63249C-FD42-4B2F-AE9E-5CB10AFC825A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16416" activeTab="1" xr2:uid="{3D63249C-FD42-4B2F-AE9E-5CB10AFC825A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
   <si>
     <t>높이</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,10 @@
   </si>
   <si>
     <t>힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴 수 (층 수)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -286,11 +290,11 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -301,20 +305,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -324,79 +315,13 @@
     <border>
       <left/>
       <right style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -409,18 +334,27 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,17 +367,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -461,37 +392,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -614,7 +533,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$M$6</c:f>
+              <c:f>Sheet2!$O$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -733,7 +652,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$N$5:$S$5</c:f>
+              <c:f>Sheet2!$P$5:$U$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -760,7 +679,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$N$6:$S$6</c:f>
+              <c:f>Sheet2!$P$6:$U$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1743,13 +1662,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1786,13 +1705,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>10654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1830,13 +1749,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1874,57 +1793,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53775ACE-7EAD-1D0D-EFFF-AFF0F0E03F47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10111740" y="1203960"/>
-          <a:ext cx="1348740" cy="1242060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1273320</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1943,15 +1818,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11385060" y="1203960"/>
-          <a:ext cx="1424160" cy="1242060"/>
+          <a:off x="14615160" y="1424940"/>
+          <a:ext cx="1348740" cy="1242060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1969,7 +1844,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1987,7 +1862,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2000,7 +1875,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2171701" y="2667000"/>
-          <a:ext cx="1348740" cy="1173480"/>
+          <a:ext cx="1348739" cy="1173480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2011,57 +1886,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7365</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5791CAC5-3530-4FC5-D954-182C8FD1F9B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10568941" y="2674365"/>
-          <a:ext cx="1348740" cy="1166115"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -2080,7 +1911,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2099,13 +1930,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2124,7 +1955,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2143,13 +1974,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -2168,7 +1999,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2187,13 +2018,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -2212,7 +2043,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2232,15 +2063,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>575310</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>499110</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2259,10 +2090,176 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB19257F-608B-D935-03C4-75D2F9486092}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3520441" y="1424940"/>
+          <a:ext cx="1348740" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1348740" cy="1242060"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA89496-BFDB-4CD6-88CC-FAD0D3765909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13266420" y="1424940"/>
+          <a:ext cx="1348740" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7365</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1348740" cy="1166115"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A4448E3-FBF4-455D-852A-74F9A6BB6F06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13266421" y="2674365"/>
+          <a:ext cx="1348740" cy="1166115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4603F1B-3CCE-9C35-CE3D-FC37F9543F4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13266420" y="1424940"/>
+          <a:ext cx="1348740" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2850,457 +2847,549 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222A7DDF-D196-460D-9DDE-10D8C91D72FC}">
-  <dimension ref="B1:S19"/>
+  <dimension ref="B1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19.69921875" customWidth="1"/>
-    <col min="3" max="4" width="17.69921875" customWidth="1"/>
-    <col min="5" max="5" width="19.69921875" customWidth="1"/>
-    <col min="6" max="7" width="17.69921875" customWidth="1"/>
-    <col min="8" max="8" width="19.69921875" customWidth="1"/>
-    <col min="9" max="10" width="17.69921875" customWidth="1"/>
-    <col min="11" max="16" width="15.69921875" customWidth="1"/>
+    <col min="3" max="5" width="17.69921875" customWidth="1"/>
+    <col min="6" max="6" width="19.69921875" customWidth="1"/>
+    <col min="7" max="8" width="17.69921875" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" customWidth="1"/>
+    <col min="10" max="12" width="17.69921875" customWidth="1"/>
+    <col min="13" max="18" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:19" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B3" s="12" t="s">
+      <c r="L2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="10">
         <v>60</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="10">
+        <v>60</v>
+      </c>
+      <c r="E3" s="10">
         <v>55</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="10">
         <v>46</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="10">
         <v>40</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="10">
         <v>60</v>
       </c>
-      <c r="J3" s="13">
+      <c r="K3" s="10">
+        <v>60</v>
+      </c>
+      <c r="L3" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="10">
         <f>10.218</f>
         <v>10.218</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="10">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="10">
         <v>10</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="10">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="10">
+        <v>10.218</v>
+      </c>
+      <c r="K4" s="10">
         <v>7</v>
       </c>
-      <c r="J4" s="13">
+      <c r="L4" s="3">
         <v>-8</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="10">
         <v>14.874000000000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="10">
+        <v>15.835000000000001</v>
+      </c>
+      <c r="E5" s="10">
         <v>17.206</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="10">
         <v>20.809000000000001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="10">
         <v>23.754000000000001</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="14">
+        <v>14.874000000000001</v>
+      </c>
+      <c r="K5" s="10">
         <v>15.492000000000001</v>
       </c>
-      <c r="J5" s="13">
+      <c r="L5" s="3">
         <v>20.785</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="3">
+      <c r="P5" s="2">
         <v>14.874000000000001</v>
       </c>
-      <c r="O5" s="3">
+      <c r="Q5" s="2">
         <v>17.206</v>
       </c>
-      <c r="P5" s="3">
+      <c r="R5" s="2">
         <v>15.492000000000001</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="S5" s="3">
         <v>20.785</v>
       </c>
-      <c r="R5" s="3">
+      <c r="T5" s="2">
         <v>20.809000000000001</v>
       </c>
-      <c r="S5" s="3">
+      <c r="U5" s="2">
         <v>23.754000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="97.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="2:21" ht="97.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="13"/>
-      <c r="M6" s="1" t="s">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="3"/>
+      <c r="O6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="3">
+      <c r="P6" s="2">
         <v>2.06</v>
       </c>
-      <c r="O6" s="4">
+      <c r="Q6" s="3">
         <v>1.94</v>
       </c>
-      <c r="P6" s="3">
+      <c r="R6" s="2">
         <v>1.96</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="S6" s="3">
         <v>1.6</v>
       </c>
-      <c r="R6" s="3">
+      <c r="T6" s="2">
         <v>1.86</v>
       </c>
-      <c r="S6" s="3">
+      <c r="U6" s="2">
         <v>1.67</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="92.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="2:21" ht="92.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B8" s="14" t="s">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="10">
         <v>24</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="10">
         <v>24</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="10">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="10">
         <v>24</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="10">
         <v>24</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="10">
         <v>24</v>
       </c>
-      <c r="J8" s="13">
+      <c r="K8" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B9" s="14" t="s">
+      <c r="L8" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="10">
+        <v>5</v>
+      </c>
+      <c r="H9" s="10">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="10">
+        <v>5</v>
+      </c>
+      <c r="K9" s="10">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="10">
         <v>3519.9229999999998</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="10">
         <v>3519.9229999999998</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="10">
+        <v>3519.9229999999998</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G10" s="10">
         <v>2898.1680000000001</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H10" s="10">
         <v>2898.1680000000001</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J10" s="10">
         <v>3519.9229999999998</v>
       </c>
-      <c r="J9" s="13">
+      <c r="K10" s="10">
         <v>3519.9229999999998</v>
       </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B10" s="14" t="s">
+      <c r="L10" s="3">
+        <v>3519.9229999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="10">
         <v>70.554000000000002</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="10">
         <v>70.554000000000002</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="10">
+        <v>70.554000000000002</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G11" s="10">
         <v>69.552000000000007</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H11" s="10">
         <v>69.552000000000007</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J11" s="10">
         <v>70.554000000000002</v>
       </c>
-      <c r="J10" s="13">
+      <c r="K11" s="10">
         <v>70.554000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B11" s="14" t="s">
+      <c r="L11" s="3">
+        <v>70.554000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="10">
         <v>68768.214999999997</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="10">
+        <v>69418.308000000005</v>
+      </c>
+      <c r="E12" s="10">
         <v>67671.183000000005</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G12" s="10">
         <v>53886.618000000002</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H12" s="10">
         <v>52172.614999999998</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J12" s="10">
+        <v>68768.214999999997</v>
+      </c>
+      <c r="K12" s="10">
         <v>69418.308000000005</v>
       </c>
-      <c r="J11" s="13">
+      <c r="L12" s="3">
         <v>62206.161</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B12" s="14" t="s">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="10">
         <v>2.06</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D13" s="10"/>
+      <c r="E13" s="3">
         <v>1.94</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G13" s="10">
         <v>1.86</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H13" s="10">
         <v>1.67</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J13" s="10">
         <v>1.96</v>
       </c>
-      <c r="J12" s="13">
+      <c r="K13" s="10"/>
+      <c r="L13" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B13" s="15" t="s">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="10">
         <v>6</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10">
         <v>4</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G14" s="10">
         <v>3</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H14" s="10">
         <v>2</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J14" s="10">
         <v>5</v>
       </c>
-      <c r="J13" s="13">
+      <c r="K14" s="10"/>
+      <c r="L14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B14" s="15" t="s">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3">
-        <f>50*(C11-C9*6)/(C8-6)/1000-C12*9.8</f>
+      <c r="C15" s="10">
+        <f>50*(C12-C10*6)/(C8-6)/1000-C13*9.8</f>
         <v>112.16943611111107</v>
       </c>
-      <c r="D14" s="3">
-        <f>50*(D11-D9*6)/(D8-6)/1000-D12*9.8</f>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
+        <f>50*(E12-E10*6)/(E8-6)/1000-E13*9.8</f>
         <v>110.298125</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="3">
-        <f t="shared" ref="F14:G14" si="0">50*(F11-F9*6)/(F8-6)/1000-F12*9.8</f>
+      <c r="G15" s="10">
+        <f>50*(G12-G10*6)/(G8-6)/1000-G13*9.8</f>
         <v>83.15424999999999</v>
       </c>
-      <c r="G14" s="3">
-        <f t="shared" si="0"/>
+      <c r="H15" s="10">
+        <f>50*(H12-H10*6)/(H8-6)/1000-H13*9.8</f>
         <v>80.255130555555539</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="3">
-        <f t="shared" ref="I14:J14" si="1">50*(I11-I9*6)/(I8-6)/1000-I12*9.8</f>
-        <v>114.95525000000001</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="1"/>
+      <c r="J15" s="10">
+        <f>50*(J12-J10*6)/(J8-6)/1000-J13*9.8</f>
+        <v>113.14943611111107</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="3">
+        <f>50*(L12-L10*6)/(L8-6)/1000-L13*9.8</f>
         <v>98.449508333333327</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="16" t="s">
+    <row r="16" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="F16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="G16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="H16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="I16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="J16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="K16" s="12"/>
+      <c r="L16" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/이것저것 계산.xlsx
+++ b/이것저것 계산.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\승원\co-op\OV-PAM\OV-PAM_modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF8ABE4-4862-4769-955C-C4F4BF7FB9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A376A7-63DC-43AB-A6F5-25F7C014D6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16416" activeTab="1" xr2:uid="{3D63249C-FD42-4B2F-AE9E-5CB10AFC825A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
   <si>
     <t>높이</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,14 @@
   </si>
   <si>
     <t>패턴 수 (층 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접히는 부분 단면적 (mm²)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응력 [Mpa]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -398,9 +406,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2063,15 +2068,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>499110</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2847,19 +2852,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222A7DDF-D196-460D-9DDE-10D8C91D72FC}">
-  <dimension ref="B1:U16"/>
+  <dimension ref="B1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.69921875" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" customWidth="1"/>
     <col min="3" max="5" width="17.69921875" customWidth="1"/>
-    <col min="6" max="6" width="19.69921875" customWidth="1"/>
+    <col min="6" max="6" width="21.69921875" customWidth="1"/>
     <col min="7" max="8" width="17.69921875" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" customWidth="1"/>
+    <col min="9" max="9" width="21.69921875" customWidth="1"/>
     <col min="10" max="12" width="17.69921875" customWidth="1"/>
     <col min="13" max="18" width="15.69921875" customWidth="1"/>
   </cols>
@@ -2904,31 +2909,31 @@
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="13">
         <v>60</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="13">
         <v>60</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="13">
         <v>55</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="13">
         <v>46</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="13">
         <v>40</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="13">
         <v>60</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="13">
         <v>60</v>
       </c>
       <c r="L3" s="3">
@@ -2939,32 +2944,32 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="13">
         <f>10.218</f>
         <v>10.218</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="13">
         <v>7</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="13">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="13">
         <v>10</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="13">
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="13">
         <v>10.218</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="13">
         <v>7</v>
       </c>
       <c r="L4" s="3">
@@ -2975,31 +2980,31 @@
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="13">
         <v>14.874000000000001</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="13">
         <v>15.835000000000001</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="13">
         <v>17.206</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="13">
         <v>20.809000000000001</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="13">
         <v>23.754000000000001</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>14.874000000000001</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="13">
         <v>15.492000000000001</v>
       </c>
       <c r="L5" s="3">
@@ -3031,19 +3036,19 @@
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="3"/>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -3071,50 +3076,50 @@
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="13">
         <v>24</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="13">
         <v>24</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="13">
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="13">
         <v>24</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="13">
         <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="13">
         <v>24</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="13">
         <v>24</v>
       </c>
       <c r="L8" s="3">
@@ -3125,31 +3130,31 @@
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="13">
         <v>5</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="13">
         <v>5</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="13">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="13">
         <v>5</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="13">
         <v>5</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="13">
         <v>5</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="13">
         <v>5</v>
       </c>
       <c r="L9" s="3">
@@ -3160,31 +3165,31 @@
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="13">
         <v>3519.9229999999998</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="13">
         <v>3519.9229999999998</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="13">
         <v>3519.9229999999998</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="13">
         <v>2898.1680000000001</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="13">
         <v>2898.1680000000001</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="13">
         <v>3519.9229999999998</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="13">
         <v>3519.9229999999998</v>
       </c>
       <c r="L10" s="3">
@@ -3195,31 +3200,31 @@
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="13">
         <v>70.554000000000002</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="13">
         <v>70.554000000000002</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="13">
         <v>70.554000000000002</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="13">
         <v>69.552000000000007</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="13">
         <v>69.552000000000007</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="13">
         <v>70.554000000000002</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="13">
         <v>70.554000000000002</v>
       </c>
       <c r="L11" s="3">
@@ -3230,31 +3235,31 @@
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="13">
         <v>68768.214999999997</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="13">
         <v>69418.308000000005</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="13">
         <v>67671.183000000005</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="13">
         <v>53886.618000000002</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="13">
         <v>52172.614999999998</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="13">
         <v>68768.214999999997</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="13">
         <v>69418.308000000005</v>
       </c>
       <c r="L12" s="3">
@@ -3265,29 +3270,29 @@
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="13">
         <v>2.06</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="3">
         <v>1.94</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="13">
         <v>1.86</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="13">
         <v>1.67</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="13">
         <v>1.96</v>
       </c>
-      <c r="K13" s="10"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="3">
         <v>1.6</v>
       </c>
@@ -3296,29 +3301,29 @@
       <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="13">
         <v>6</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13">
         <v>4</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="13">
         <v>3</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="13">
         <v>2</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="13">
         <v>5</v>
       </c>
-      <c r="K14" s="10"/>
+      <c r="K14" s="13"/>
       <c r="L14" s="3">
         <v>1</v>
       </c>
@@ -3327,67 +3332,108 @@
       <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="13">
         <f>50*(C12-C10*6)/(C8-6)/1000-C13*9.8</f>
         <v>112.16943611111107</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13">
         <f>50*(E12-E10*6)/(E8-6)/1000-E13*9.8</f>
         <v>110.298125</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="13">
         <f>50*(G12-G10*6)/(G8-6)/1000-G13*9.8</f>
         <v>83.15424999999999</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="13">
         <f>50*(H12-H10*6)/(H8-6)/1000-H13*9.8</f>
         <v>80.255130555555539</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="13">
         <f>50*(J12-J10*6)/(J8-6)/1000-J13*9.8</f>
         <v>113.14943611111107</v>
       </c>
-      <c r="K15" s="10"/>
+      <c r="K15" s="13"/>
       <c r="L15" s="3">
         <f>50*(L12-L10*6)/(L8-6)/1000-L13*9.8</f>
         <v>98.449508333333327</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="13">
+        <v>215.88300000000001</v>
+      </c>
+      <c r="D16" s="13">
+        <v>235.62899999999999</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="13">
+        <f>C13*9.8/C16</f>
+        <v>9.3513616171722658E-2</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="13" t="s">
+      <c r="K18" s="11"/>
+      <c r="L18" s="12" t="s">
         <v>30</v>
       </c>
     </row>
